--- a/biology/Zoologie/Contrafacia_imma/Contrafacia_imma.xlsx
+++ b/biology/Zoologie/Contrafacia_imma/Contrafacia_imma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrafacia imma est une espèce de lépidoptères (papillons) de la famille des Lycaenidae, sous-famille des Theclinae et du genre Contrafacia.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Contrafacia imma a été décrite par Otto von Prittwitz (d) en 1865 sous le nom initial de Thecla imma.
-Synonymes : Thecla orcynia Hewitson, 1868 (au Guatemela) ; Thecla anthracia Hewitson, 1874 (au Brésil) ; Thecla aunia Hewitson, 1874 (au Venezuela) ; Thecla heloisa Möschler, 1883 (au Surinam) ; Contrafacia mexicana Johnson, 1989 (au Mexique) ; Contrafacia australis Johnson, 1989 (au Paraguay) ; Contrafacia minutaea Johnson, 1989 (au Brésil) ; Orcya hewitsoni Johnson, 1990 (en Équateur) ; Orcya supra Johnson, 1990 (en Argentine) ; Orcya obliqua Johnson, 1990 (en Argentine) ; Orcya snyderi Johnson, 1992 (en Guyane)[1]
-Nom vernaculaire
-Contrafacia imma se nomme Imma Hairstreak en anglais[2].
+Synonymes : Thecla orcynia Hewitson, 1868 (au Guatemela) ; Thecla anthracia Hewitson, 1874 (au Brésil) ; Thecla aunia Hewitson, 1874 (au Venezuela) ; Thecla heloisa Möschler, 1883 (au Surinam) ; Contrafacia mexicana Johnson, 1989 (au Mexique) ; Contrafacia australis Johnson, 1989 (au Paraguay) ; Contrafacia minutaea Johnson, 1989 (au Brésil) ; Orcya hewitsoni Johnson, 1990 (en Équateur) ; Orcya supra Johnson, 1990 (en Argentine) ; Orcya obliqua Johnson, 1990 (en Argentine) ; Orcya snyderi Johnson, 1992 (en Guyane)
 </t>
         </is>
       </c>
@@ -542,14 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contrafacia imma est un petit papillon d'une envergure d'environ 30 mm, aux antennes et aux pattes annelées de blanc et de noir, avec deux fines queues, une longue et une courte à chaque aile postérieure[3].
-Le dessus est beige foncé avec de grandes plages bleu-clair métallisé laissant une très large bordure marron.
-Le revers est blanc beige avec une ligne submarginale et une ligne postdiscale de chevrons blancs, et, aux ailes postérieures, deux ocelles orange pupillé de noir, un entre les deux queues et un en position anale.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrafacia imma se nomme Imma Hairstreak en anglais.
 </t>
         </is>
       </c>
@@ -575,12 +591,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrafacia imma est un petit papillon d'une envergure d'environ 30 mm, aux antennes et aux pattes annelées de blanc et de noir, avec deux fines queues, une longue et une courte à chaque aile postérieure.
+Le dessus est beige foncé avec de grandes plages bleu-clair métallisé laissant une très large bordure marron.
+Le revers est blanc beige avec une ligne submarginale et une ligne postdiscale de chevrons blancs, et, aux ailes postérieures, deux ocelles orange pupillé de noir, un entre les deux queues et un en position anale.
+</t>
         </is>
       </c>
     </row>
@@ -608,12 +629,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contrafacia imma est présent au Mexique, au Guatemala, au Costa Rica, au Panama, en Colombie, en Équateur, au Venezuela, au Brésil, au Paraguay, en Argentine, au Surinam, au Guyana et en Guyane[2],[3],[1],[4].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrafacia imma est présent au Mexique, au Guatemala, au Costa Rica, au Panama, en Colombie, en Équateur, au Venezuela, au Brésil, au Paraguay, en Argentine, au Surinam, au Guyana et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Contrafacia_imma</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Contrafacia_imma</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
